--- a/Calculs/PH2/DataBase_PH2_Divers_V6.xlsx
+++ b/Calculs/PH2/DataBase_PH2_Divers_V6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\PH2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051471D9-D25B-4AD2-93A6-5B6F6772B2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4339C10E-CEF1-488C-A84F-85733FA7FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -789,49 +789,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -1185,9 +1143,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
   <dimension ref="A1:AT158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C88" sqref="C88:C92"/>
+      <selection pane="topRight" activeCell="AA71" sqref="AA71:AA74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6924,29 +6882,29 @@
       </c>
       <c r="X57" s="6"/>
       <c r="Y57" s="2">
-        <f t="shared" ref="Y57:Y62" si="66">IFERROR(IF(ISNUMBER(SEARCH("Appui",C57)),V57+X57*V57,IF(A56&lt;A57,V57-X58*V58/2,IF(A57&lt;A58,V57-(X56*V56)/2,V57-(X58*V58+X56*V56)/2))),0)</f>
+        <f t="shared" ref="Y57" si="66">IFERROR(IF(ISNUMBER(SEARCH("Appui",C57)),V57+X57*V57,IF(A56&lt;A57,V57-X58*V58/2,IF(A57&lt;A58,V57-(X56*V56)/2,V57-(X58*V58+X56*V56)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="Z57" s="2">
-        <f t="shared" ref="Z57:Z62" si="67">IFERROR(IF(ISNUMBER(SEARCH("Appui",C57)),W57+X57*W57,IF(A56&lt;A57,W57-X58*W58/2,IF(A57&lt;A58,W57-(X56*W56)/2,W57-(X58*W58+X56*W56)/2))),0)</f>
+        <f t="shared" ref="Z57" si="67">IFERROR(IF(ISNUMBER(SEARCH("Appui",C57)),W57+X57*W57,IF(A56&lt;A57,W57-X58*W58/2,IF(A57&lt;A58,W57-(X56*W56)/2,W57-(X58*W58+X56*W56)/2))),0)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="3"/>
       <c r="AB57" s="2">
-        <f t="shared" ref="AB57:AB62" si="68">Y57*(1-AA57)</f>
+        <f t="shared" ref="AB57" si="68">Y57*(1-AA57)</f>
         <v>0</v>
       </c>
       <c r="AC57" s="2">
-        <f t="shared" ref="AC57:AC62" si="69">Y57*AA57 + Z57</f>
+        <f t="shared" ref="AC57" si="69">Y57*AA57 + Z57</f>
         <v>0</v>
       </c>
       <c r="AD57" s="4">
-        <f t="shared" ref="AD57:AD62" si="70">1.35*Y57+1.5*Z57</f>
+        <f t="shared" ref="AD57" si="70">1.35*Y57+1.5*Z57</f>
         <v>0</v>
       </c>
       <c r="AE57" s="4"/>
       <c r="AF57">
-        <f t="shared" ref="AF57:AF62" si="71">AB57+AC57</f>
+        <f t="shared" ref="AF57" si="71">AB57+AC57</f>
         <v>0</v>
       </c>
       <c r="AT57" s="10"/>
@@ -7129,8 +7087,9 @@
       <c r="Z59" s="2">
         <v>4.8000000000000007</v>
       </c>
-      <c r="AA59" s="5">
-        <v>0.25</v>
+      <c r="AA59" s="14">
+        <f>25%*0</f>
+        <v>0</v>
       </c>
       <c r="AB59" s="2">
         <v>6.48</v>
@@ -7227,8 +7186,9 @@
       <c r="Z60" s="2">
         <v>50.3</v>
       </c>
-      <c r="AA60" s="5">
-        <v>0.5</v>
+      <c r="AA60" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB60" s="2">
         <v>52.17</v>
@@ -7325,8 +7285,9 @@
       <c r="Z61" s="2">
         <v>2.6000000000000014</v>
       </c>
-      <c r="AA61" s="5">
-        <v>0.5</v>
+      <c r="AA61" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB61" s="2">
         <v>2.34</v>
@@ -7423,8 +7384,9 @@
       <c r="Z62" s="2">
         <v>31.7</v>
       </c>
-      <c r="AA62" s="5">
-        <v>0.5</v>
+      <c r="AA62" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB62" s="2">
         <v>28.83</v>
@@ -8404,8 +8366,9 @@
       <c r="Z71" s="2">
         <v>4.8000000000000007</v>
       </c>
-      <c r="AA71" s="5">
-        <v>0.25</v>
+      <c r="AA71" s="14">
+        <f>25%*0</f>
+        <v>0</v>
       </c>
       <c r="AB71" s="2">
         <v>6.48</v>
@@ -8501,8 +8464,9 @@
       <c r="Z72" s="2">
         <v>50.3</v>
       </c>
-      <c r="AA72" s="5">
-        <v>0.5</v>
+      <c r="AA72" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB72" s="2">
         <v>52.17</v>
@@ -8598,8 +8562,9 @@
       <c r="Z73" s="2">
         <v>2.6000000000000014</v>
       </c>
-      <c r="AA73" s="5">
-        <v>0.5</v>
+      <c r="AA73" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB73" s="2">
         <v>2.34</v>
@@ -8695,8 +8660,9 @@
       <c r="Z74" s="2">
         <v>31.7</v>
       </c>
-      <c r="AA74" s="5">
-        <v>0.5</v>
+      <c r="AA74" s="14">
+        <f>50%*0</f>
+        <v>0</v>
       </c>
       <c r="AB74" s="2">
         <v>28.83</v>
@@ -12450,7 +12416,7 @@
         <v>25</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" ref="E112:Q112" si="170">E100</f>
+        <f t="shared" ref="E112:K112" si="170">E100</f>
         <v>B</v>
       </c>
       <c r="F112">
@@ -12564,7 +12530,7 @@
         <v>44</v>
       </c>
       <c r="D113">
-        <f t="shared" ref="D113:R113" si="171">D101</f>
+        <f t="shared" ref="D113:K113" si="171">D101</f>
         <v>25</v>
       </c>
       <c r="E113" t="str">
@@ -12629,7 +12595,7 @@
         <v>0</v>
       </c>
       <c r="U113" s="10">
-        <f t="shared" ref="U113:Y113" si="178">U95/2+U101+U107/2</f>
+        <f t="shared" ref="U113:W113" si="178">U95/2+U101+U107/2</f>
         <v>14</v>
       </c>
       <c r="V113" s="10">
@@ -12644,7 +12610,7 @@
         <v>0</v>
       </c>
       <c r="Y113" s="10">
-        <f t="shared" ref="Y113:AA113" si="179">Y95/2+Y101+Y107/2</f>
+        <f t="shared" ref="Y113:Z113" si="179">Y95/2+Y101+Y107/2</f>
         <v>93.339999999999989</v>
       </c>
       <c r="Z113" s="10">
@@ -12653,7 +12619,7 @@
       </c>
       <c r="AA113" s="3"/>
       <c r="AB113" s="10">
-        <f t="shared" ref="AB113:AD113" si="180">AB95/2+AB101+AB107/2</f>
+        <f t="shared" ref="AB113:AC113" si="180">AB95/2+AB101+AB107/2</f>
         <v>93.339999999999989</v>
       </c>
       <c r="AC113" s="10">
@@ -12661,12 +12627,12 @@
         <v>34.572499999999998</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" ref="AD113:AD121" si="181">1.35*Y113+1.5*Z113</f>
+        <f t="shared" ref="AD113:AD117" si="181">1.35*Y113+1.5*Z113</f>
         <v>177.86775</v>
       </c>
       <c r="AE113" s="4"/>
       <c r="AF113" s="10">
-        <f t="shared" ref="AF113:AF121" si="182">AB113+AC113</f>
+        <f t="shared" ref="AF113:AF117" si="182">AB113+AC113</f>
         <v>127.91249999999999</v>
       </c>
     </row>
@@ -12682,7 +12648,7 @@
         <v>45</v>
       </c>
       <c r="D114">
-        <f t="shared" ref="D114:R114" si="183">D102</f>
+        <f t="shared" ref="D114:K114" si="183">D102</f>
         <v>25</v>
       </c>
       <c r="E114" t="str">
@@ -12747,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="U114" s="10">
-        <f t="shared" ref="U114:W114" si="184">U96/2+U102+U108/2</f>
+        <f t="shared" ref="U114" si="184">U96/2+U102+U108/2</f>
         <v>14</v>
       </c>
       <c r="V114" s="10">
@@ -12755,14 +12721,14 @@
         <v>129.65</v>
       </c>
       <c r="W114" s="10">
-        <f t="shared" ref="W114:Y114" si="185">W96/2+W102+W108/2</f>
+        <f t="shared" ref="W114" si="185">W96/2+W102+W108/2</f>
         <v>54.25</v>
       </c>
       <c r="X114" s="9">
         <v>0</v>
       </c>
       <c r="Y114" s="10">
-        <f t="shared" ref="Y114:AA114" si="186">Y96/2+Y102+Y108/2</f>
+        <f t="shared" ref="Y114:Z114" si="186">Y96/2+Y102+Y108/2</f>
         <v>172.91</v>
       </c>
       <c r="Z114" s="10">
@@ -12771,7 +12737,7 @@
       </c>
       <c r="AA114" s="3"/>
       <c r="AB114" s="10">
-        <f t="shared" ref="AB114:AD114" si="187">AB96/2+AB102+AB108/2</f>
+        <f t="shared" ref="AB114:AC114" si="187">AB96/2+AB102+AB108/2</f>
         <v>172.91</v>
       </c>
       <c r="AC114" s="10">
@@ -12800,7 +12766,7 @@
         <v>46</v>
       </c>
       <c r="D115">
-        <f t="shared" ref="D115:R115" si="188">D103</f>
+        <f t="shared" ref="D115:K115" si="188">D103</f>
         <v>25</v>
       </c>
       <c r="E115" t="str">
@@ -12865,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="U115" s="10">
-        <f t="shared" ref="U115:Y115" si="189">U97/2+U103+U109/2</f>
+        <f t="shared" ref="U115:W115" si="189">U97/2+U103+U109/2</f>
         <v>14</v>
       </c>
       <c r="V115" s="10">
@@ -12880,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="Y115" s="10">
-        <f t="shared" ref="Y115:AA115" si="190">Y97/2+Y103+Y109/2</f>
+        <f t="shared" ref="Y115:Z115" si="190">Y97/2+Y103+Y109/2</f>
         <v>74.39</v>
       </c>
       <c r="Z115" s="10">
@@ -12889,7 +12855,7 @@
       </c>
       <c r="AA115" s="3"/>
       <c r="AB115" s="10">
-        <f t="shared" ref="AB115:AD115" si="191">AB97/2+AB103+AB109/2</f>
+        <f t="shared" ref="AB115:AC115" si="191">AB97/2+AB103+AB109/2</f>
         <v>74.39</v>
       </c>
       <c r="AC115" s="10">
@@ -12918,7 +12884,7 @@
         <v>47</v>
       </c>
       <c r="D116">
-        <f t="shared" ref="D116:R116" si="192">D104</f>
+        <f t="shared" ref="D116:K116" si="192">D104</f>
         <v>25</v>
       </c>
       <c r="E116" t="str">
@@ -12983,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="U116" s="10">
-        <f t="shared" ref="U116:Y116" si="193">U98/2+U104+U110/2</f>
+        <f t="shared" ref="U116:W116" si="193">U98/2+U104+U110/2</f>
         <v>6</v>
       </c>
       <c r="V116" s="10">
@@ -12998,7 +12964,7 @@
         <v>0</v>
       </c>
       <c r="Y116" s="10">
-        <f t="shared" ref="Y116:AA116" si="194">Y98/2+Y104+Y110/2</f>
+        <f t="shared" ref="Y116:Z116" si="194">Y98/2+Y104+Y110/2</f>
         <v>23.055</v>
       </c>
       <c r="Z116" s="10">
@@ -13007,7 +12973,7 @@
       </c>
       <c r="AA116" s="3"/>
       <c r="AB116" s="10">
-        <f t="shared" ref="AB116:AD116" si="195">AB98/2+AB104+AB110/2</f>
+        <f t="shared" ref="AB116:AC116" si="195">AB98/2+AB104+AB110/2</f>
         <v>23.055</v>
       </c>
       <c r="AC116" s="10">
@@ -14879,7 +14845,7 @@
         <v>25</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" ref="E136:Q136" si="218">E124</f>
+        <f t="shared" ref="E136:K136" si="218">E124</f>
         <v>B</v>
       </c>
       <c r="F136">
@@ -14993,7 +14959,7 @@
         <v>44</v>
       </c>
       <c r="D137">
-        <f t="shared" ref="D137:R137" si="219">D125</f>
+        <f t="shared" ref="D137:K137" si="219">D125</f>
         <v>25</v>
       </c>
       <c r="E137" t="str">
@@ -15058,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="U137" s="10">
-        <f t="shared" ref="U137:Y137" si="226">U119/2+U125+U131/2</f>
+        <f t="shared" ref="U137:W137" si="226">U119/2+U125+U131/2</f>
         <v>14</v>
       </c>
       <c r="V137" s="10">
@@ -15073,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="Y137" s="10">
-        <f t="shared" ref="Y137:AA137" si="227">Y119/2+Y125+Y131/2</f>
+        <f t="shared" ref="Y137:Z137" si="227">Y119/2+Y125+Y131/2</f>
         <v>98.782499999999999</v>
       </c>
       <c r="Z137" s="10">
@@ -15082,7 +15048,7 @@
       </c>
       <c r="AA137" s="3"/>
       <c r="AB137" s="10">
-        <f t="shared" ref="AB137:AD137" si="228">AB119/2+AB125+AB131/2</f>
+        <f t="shared" ref="AB137:AC137" si="228">AB119/2+AB125+AB131/2</f>
         <v>98.782499999999999</v>
       </c>
       <c r="AC137" s="10">
@@ -15111,7 +15077,7 @@
         <v>45</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:R138" si="231">D126</f>
+        <f t="shared" ref="D138:K138" si="231">D126</f>
         <v>25</v>
       </c>
       <c r="E138" t="str">
@@ -15176,7 +15142,7 @@
         <v>0</v>
       </c>
       <c r="U138" s="10">
-        <f t="shared" ref="U138:Y139" si="232">U120/2+U126+U132/2</f>
+        <f t="shared" ref="U138:W139" si="232">U120/2+U126+U132/2</f>
         <v>16</v>
       </c>
       <c r="V138" s="10">
@@ -15191,7 +15157,7 @@
         <v>0</v>
       </c>
       <c r="Y138" s="10">
-        <f t="shared" ref="Y138:AA138" si="233">Y120/2+Y126+Y132/2</f>
+        <f t="shared" ref="Y138:Z138" si="233">Y120/2+Y126+Y132/2</f>
         <v>162.63874999999999</v>
       </c>
       <c r="Z138" s="10">
@@ -15200,7 +15166,7 @@
       </c>
       <c r="AA138" s="3"/>
       <c r="AB138" s="10">
-        <f t="shared" ref="AB138:AD138" si="234">AB120/2+AB126+AB132/2</f>
+        <f t="shared" ref="AB138:AC138" si="234">AB120/2+AB126+AB132/2</f>
         <v>162.63874999999999</v>
       </c>
       <c r="AC138" s="10">
@@ -15229,7 +15195,7 @@
         <v>46</v>
       </c>
       <c r="D139">
-        <f t="shared" ref="D139:R139" si="235">D127</f>
+        <f t="shared" ref="D139:K139" si="235">D127</f>
         <v>25</v>
       </c>
       <c r="E139" t="str">
@@ -15309,7 +15275,7 @@
         <v>0</v>
       </c>
       <c r="Y139" s="10">
-        <f t="shared" ref="Y139:AA139" si="236">Y121/2+Y127+Y133/2</f>
+        <f t="shared" ref="Y139:Z139" si="236">Y121/2+Y127+Y133/2</f>
         <v>103.99</v>
       </c>
       <c r="Z139" s="10">
@@ -15318,7 +15284,7 @@
       </c>
       <c r="AA139" s="3"/>
       <c r="AB139" s="10">
-        <f t="shared" ref="AB139:AD139" si="237">AB121/2+AB127+AB133/2</f>
+        <f t="shared" ref="AB139:AC139" si="237">AB121/2+AB127+AB133/2</f>
         <v>103.99</v>
       </c>
       <c r="AC139" s="10">
@@ -15347,7 +15313,7 @@
         <v>47</v>
       </c>
       <c r="D140">
-        <f t="shared" ref="D140:R140" si="238">D128</f>
+        <f t="shared" ref="D140:K140" si="238">D128</f>
         <v>25</v>
       </c>
       <c r="E140" t="str">
@@ -15412,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="U140" s="10">
-        <f t="shared" ref="U140:Y140" si="239">U122/2+U128+U134/2</f>
+        <f t="shared" ref="U140:W140" si="239">U122/2+U128+U134/2</f>
         <v>2</v>
       </c>
       <c r="V140" s="10">
@@ -15427,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="Y140" s="10">
-        <f t="shared" ref="Y140:AA140" si="240">Y122/2+Y128+Y134/2</f>
+        <f t="shared" ref="Y140:Z140" si="240">Y122/2+Y128+Y134/2</f>
         <v>10.005000000000001</v>
       </c>
       <c r="Z140" s="10">
@@ -15436,7 +15402,7 @@
       </c>
       <c r="AA140" s="3"/>
       <c r="AB140" s="10">
-        <f t="shared" ref="AB140:AD140" si="241">AB122/2+AB128+AB134/2</f>
+        <f t="shared" ref="AB140:AC140" si="241">AB122/2+AB128+AB134/2</f>
         <v>10.005000000000001</v>
       </c>
       <c r="AC140" s="10">
@@ -16916,7 +16882,7 @@
         <v>43</v>
       </c>
       <c r="D156">
-        <f t="shared" ref="D156:R156" si="259">D148</f>
+        <f t="shared" ref="D156:K156" si="259">D148</f>
         <v>25</v>
       </c>
       <c r="E156" t="str">
@@ -16981,35 +16947,35 @@
         <v>0</v>
       </c>
       <c r="U156" s="10">
-        <f>U142/2+U148+U152/2</f>
+        <f t="shared" ref="U156:W158" si="260">U142/2+U148+U152/2</f>
         <v>5</v>
       </c>
       <c r="V156" s="10">
-        <f>V142/2+V148+V152/2</f>
+        <f t="shared" si="260"/>
         <v>65.25</v>
       </c>
       <c r="W156" s="10">
-        <f>W142/2+W148+W152/2</f>
+        <f t="shared" si="260"/>
         <v>32.75</v>
       </c>
       <c r="X156" s="9">
         <v>0</v>
       </c>
       <c r="Y156" s="10">
-        <f>Y142/2+Y148+Y152/2</f>
+        <f t="shared" ref="Y156:Z158" si="261">Y142/2+Y148+Y152/2</f>
         <v>79.446249999999992</v>
       </c>
       <c r="Z156" s="10">
-        <f>Z142/2+Z148+Z152/2</f>
+        <f t="shared" si="261"/>
         <v>40.676250000000003</v>
       </c>
       <c r="AA156" s="3"/>
       <c r="AB156" s="10">
-        <f>AB142/2+AB148+AB152/2</f>
+        <f t="shared" ref="AB156:AC158" si="262">AB142/2+AB148+AB152/2</f>
         <v>79.446249999999992</v>
       </c>
       <c r="AC156" s="10">
-        <f>AC142/2+AC148+AC152/2</f>
+        <f t="shared" si="262"/>
         <v>40.676250000000003</v>
       </c>
       <c r="AD156" s="4">
@@ -17034,35 +17000,35 @@
         <v>44</v>
       </c>
       <c r="D157">
-        <f t="shared" ref="D157:R157" si="260">D149</f>
+        <f t="shared" ref="D157:K157" si="263">D149</f>
         <v>25</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>B</v>
       </c>
       <c r="F157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>500</v>
       </c>
       <c r="G157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>220000</v>
       </c>
       <c r="H157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>1576</v>
       </c>
       <c r="I157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>1870</v>
       </c>
       <c r="J157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>1</v>
       </c>
       <c r="K157">
-        <f t="shared" si="260"/>
+        <f t="shared" si="263"/>
         <v>0.23</v>
       </c>
       <c r="L157">
@@ -17099,44 +17065,44 @@
         <v>0</v>
       </c>
       <c r="U157" s="10">
-        <f>U143/2+U149+U153/2</f>
+        <f t="shared" si="260"/>
         <v>14</v>
       </c>
       <c r="V157" s="10">
-        <f>V143/2+V149+V153/2</f>
+        <f t="shared" si="260"/>
         <v>111.5</v>
       </c>
       <c r="W157" s="10">
-        <f>W143/2+W149+W153/2</f>
+        <f t="shared" si="260"/>
         <v>46</v>
       </c>
       <c r="X157" s="9">
         <v>0</v>
       </c>
       <c r="Y157" s="10">
-        <f>Y143/2+Y149+Y153/2</f>
+        <f t="shared" si="261"/>
         <v>83.107500000000002</v>
       </c>
       <c r="Z157" s="10">
-        <f>Z143/2+Z149+Z153/2</f>
+        <f t="shared" si="261"/>
         <v>30.147500000000001</v>
       </c>
       <c r="AA157" s="3"/>
       <c r="AB157" s="10">
-        <f>AB143/2+AB149+AB153/2</f>
+        <f t="shared" si="262"/>
         <v>83.107500000000002</v>
       </c>
       <c r="AC157" s="10">
-        <f>AC143/2+AC149+AC153/2</f>
+        <f t="shared" si="262"/>
         <v>30.147500000000001</v>
       </c>
       <c r="AD157" s="4">
-        <f t="shared" ref="AD157:AD158" si="261">1.35*Y157+1.5*Z157</f>
+        <f t="shared" ref="AD157:AD158" si="264">1.35*Y157+1.5*Z157</f>
         <v>157.41637500000002</v>
       </c>
       <c r="AE157" s="4"/>
       <c r="AF157" s="10">
-        <f t="shared" ref="AF157:AF158" si="262">AB157+AC157</f>
+        <f t="shared" ref="AF157:AF158" si="265">AB157+AC157</f>
         <v>113.255</v>
       </c>
     </row>
@@ -17152,35 +17118,35 @@
         <v>45</v>
       </c>
       <c r="D158">
-        <f t="shared" ref="D158:R158" si="263">D150</f>
+        <f t="shared" ref="D158:K158" si="266">D150</f>
         <v>25</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>B</v>
       </c>
       <c r="F158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>500</v>
       </c>
       <c r="G158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>220000</v>
       </c>
       <c r="H158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>1576</v>
       </c>
       <c r="I158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>1870</v>
       </c>
       <c r="J158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>1</v>
       </c>
       <c r="K158">
-        <f t="shared" si="263"/>
+        <f t="shared" si="266"/>
         <v>0.215</v>
       </c>
       <c r="L158">
@@ -17217,87 +17183,62 @@
         <v>0</v>
       </c>
       <c r="U158" s="10">
-        <f>U144/2+U150+U154/2</f>
+        <f t="shared" si="260"/>
         <v>14</v>
       </c>
       <c r="V158" s="10">
-        <f>V144/2+V150+V154/2</f>
+        <f t="shared" si="260"/>
         <v>110.5</v>
       </c>
       <c r="W158" s="10">
-        <f>W144/2+W150+W154/2</f>
+        <f t="shared" si="260"/>
         <v>46</v>
       </c>
       <c r="X158" s="9">
         <v>0</v>
       </c>
       <c r="Y158" s="10">
-        <f>Y144/2+Y150+Y154/2</f>
+        <f t="shared" si="261"/>
         <v>124.69624999999999</v>
       </c>
       <c r="Z158" s="10">
-        <f>Z144/2+Z150+Z154/2</f>
+        <f t="shared" si="261"/>
         <v>53.926250000000003</v>
       </c>
       <c r="AA158" s="3"/>
       <c r="AB158" s="10">
-        <f>AB144/2+AB150+AB154/2</f>
+        <f t="shared" si="262"/>
         <v>124.69624999999999</v>
       </c>
       <c r="AC158" s="10">
-        <f>AC144/2+AC150+AC154/2</f>
+        <f t="shared" si="262"/>
         <v>53.926250000000003</v>
       </c>
       <c r="AD158" s="4">
-        <f t="shared" si="261"/>
+        <f t="shared" si="264"/>
         <v>249.22931249999999</v>
       </c>
       <c r="AE158" s="4"/>
       <c r="AF158" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="265"/>
         <v>178.6225</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="X2:X17">
-    <cfRule type="expression" dxfId="8" priority="36">
+    <cfRule type="expression" dxfId="2" priority="36">
       <formula>$A2="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X19:X39">
-    <cfRule type="expression" dxfId="7" priority="31">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>$A19="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X41:X45 X51 X57 X63:X69 X75 X81:X158">
-    <cfRule type="expression" dxfId="6" priority="6">
+  <conditionalFormatting sqref="X41:X158">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A41="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X46:X50">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$A46="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X52:X56">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$A52="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X58:X62">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$A58="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X70:X74">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A70="Travée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X76:X80">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A76="Travée"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
